--- a/output/sites/clustering with PCs/clust_PCs_findk_validity_measures_all_scats.xlsx
+++ b/output/sites/clustering with PCs/clust_PCs_findk_validity_measures_all_scats.xlsx
@@ -410,25 +410,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.511</v>
+        <v>1.088</v>
       </c>
       <c r="E2" t="n">
-        <v>1.748</v>
+        <v>1.115</v>
       </c>
       <c r="F2" t="n">
-        <v>1.593</v>
+        <v>1.059</v>
       </c>
       <c r="G2" t="n">
-        <v>0.304</v>
+        <v>0.699</v>
       </c>
       <c r="H2" t="n">
-        <v>2.658</v>
+        <v>3.766</v>
       </c>
       <c r="I2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>0.511</v>
+        <v>1.088</v>
       </c>
       <c r="E3" t="n">
-        <v>1.145</v>
+        <v>2.408</v>
       </c>
       <c r="F3" t="n">
-        <v>1.153</v>
+        <v>2.319</v>
       </c>
       <c r="G3" t="n">
-        <v>0.568</v>
+        <v>0.311</v>
       </c>
       <c r="H3" t="n">
-        <v>2.658</v>
+        <v>3.766</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.511</v>
+        <v>1.088</v>
       </c>
       <c r="E4" t="n">
-        <v>1.349</v>
+        <v>1.115</v>
       </c>
       <c r="F4" t="n">
-        <v>1.308</v>
+        <v>1.059</v>
       </c>
       <c r="G4" t="n">
-        <v>0.343</v>
+        <v>0.669</v>
       </c>
       <c r="H4" t="n">
-        <v>2.469</v>
+        <v>3.766</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -497,25 +497,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>0.511</v>
+        <v>0.924</v>
       </c>
       <c r="E5" t="n">
-        <v>1.145</v>
+        <v>1.918</v>
       </c>
       <c r="F5" t="n">
-        <v>1.153</v>
+        <v>1.841</v>
       </c>
       <c r="G5" t="n">
-        <v>0.518</v>
+        <v>0.282</v>
       </c>
       <c r="H5" t="n">
-        <v>2.658</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -526,25 +526,25 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.894</v>
+        <v>0.924</v>
       </c>
       <c r="E6" t="n">
-        <v>1.544</v>
+        <v>1.891</v>
       </c>
       <c r="F6" t="n">
-        <v>1.522</v>
+        <v>1.932</v>
       </c>
       <c r="G6" t="n">
-        <v>0.394</v>
+        <v>0.313</v>
       </c>
       <c r="H6" t="n">
-        <v>3.238</v>
+        <v>3.262</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -555,25 +555,25 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>0.67</v>
+        <v>1.088</v>
       </c>
       <c r="E7" t="n">
-        <v>1.075</v>
+        <v>1.115</v>
       </c>
       <c r="F7" t="n">
-        <v>1.024</v>
+        <v>1.059</v>
       </c>
       <c r="G7" t="n">
-        <v>0.35</v>
+        <v>0.578</v>
       </c>
       <c r="H7" t="n">
-        <v>2.42</v>
+        <v>3.766</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -584,25 +584,25 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>0.511</v>
+        <v>0.924</v>
       </c>
       <c r="E8" t="n">
-        <v>1.145</v>
+        <v>1.621</v>
       </c>
       <c r="F8" t="n">
-        <v>1.153</v>
+        <v>1.46</v>
       </c>
       <c r="G8" t="n">
-        <v>0.359</v>
+        <v>0.21</v>
       </c>
       <c r="H8" t="n">
-        <v>2.658</v>
+        <v>2.715</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -613,25 +613,25 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="I9" t="n">
         <v>11</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.511</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.964</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.003</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -642,25 +642,25 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.894</v>
+        <v>0.924</v>
       </c>
       <c r="E10" t="n">
-        <v>1.544</v>
+        <v>1.891</v>
       </c>
       <c r="F10" t="n">
-        <v>1.522</v>
+        <v>1.932</v>
       </c>
       <c r="G10" t="n">
-        <v>0.36</v>
+        <v>0.256</v>
       </c>
       <c r="H10" t="n">
-        <v>3.238</v>
+        <v>3.262</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -671,25 +671,25 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.644</v>
+        <v>1.088</v>
       </c>
       <c r="E11" t="n">
-        <v>0.537</v>
+        <v>1.115</v>
       </c>
       <c r="F11" t="n">
-        <v>0.454</v>
+        <v>1.059</v>
       </c>
       <c r="G11" t="n">
-        <v>0.619</v>
+        <v>0.574</v>
       </c>
       <c r="H11" t="n">
-        <v>2.106</v>
+        <v>3.766</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -700,25 +700,25 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.511</v>
+        <v>0.924</v>
       </c>
       <c r="E12" t="n">
-        <v>1.145</v>
+        <v>1.621</v>
       </c>
       <c r="F12" t="n">
-        <v>1.153</v>
+        <v>1.46</v>
       </c>
       <c r="G12" t="n">
-        <v>0.359</v>
+        <v>0.172</v>
       </c>
       <c r="H12" t="n">
-        <v>2.658</v>
+        <v>2.715</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -729,25 +729,25 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>0.511</v>
+        <v>0.931</v>
       </c>
       <c r="E13" t="n">
-        <v>0.964</v>
+        <v>1.112</v>
       </c>
       <c r="F13" t="n">
-        <v>1.003</v>
+        <v>1.056</v>
       </c>
       <c r="G13" t="n">
-        <v>0.303</v>
+        <v>0.524</v>
       </c>
       <c r="H13" t="n">
-        <v>1.866</v>
+        <v>3.53</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -758,25 +758,25 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>0.894</v>
+        <v>0.924</v>
       </c>
       <c r="E14" t="n">
-        <v>1.544</v>
+        <v>1.519</v>
       </c>
       <c r="F14" t="n">
-        <v>1.522</v>
+        <v>1.505</v>
       </c>
       <c r="G14" t="n">
-        <v>0.298</v>
+        <v>0.236</v>
       </c>
       <c r="H14" t="n">
-        <v>3.238</v>
+        <v>2.953</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -787,25 +787,25 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.644</v>
+        <v>1.218</v>
       </c>
       <c r="E15" t="n">
-        <v>0.85</v>
+        <v>1.177</v>
       </c>
       <c r="F15" t="n">
-        <v>0.804</v>
+        <v>1.126</v>
       </c>
       <c r="G15" t="n">
-        <v>0.332</v>
+        <v>0.523</v>
       </c>
       <c r="H15" t="n">
-        <v>2.296</v>
+        <v>3.874</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -816,25 +816,25 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>0.644</v>
+        <v>1.088</v>
       </c>
       <c r="E16" t="n">
-        <v>0.537</v>
+        <v>1.115</v>
       </c>
       <c r="F16" t="n">
-        <v>0.454</v>
+        <v>1.059</v>
       </c>
       <c r="G16" t="n">
-        <v>0.619</v>
+        <v>0.518</v>
       </c>
       <c r="H16" t="n">
-        <v>2.106</v>
+        <v>3.766</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -845,25 +845,25 @@
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>0.506</v>
+        <v>0.858</v>
       </c>
       <c r="E17" t="n">
-        <v>0.984</v>
+        <v>1.118</v>
       </c>
       <c r="F17" t="n">
-        <v>0.977</v>
+        <v>0.994</v>
       </c>
       <c r="G17" t="n">
-        <v>0.253</v>
+        <v>0.351</v>
       </c>
       <c r="H17" t="n">
-        <v>2.389</v>
+        <v>2.786</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -874,25 +874,25 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>0.506</v>
+        <v>0.931</v>
       </c>
       <c r="E18" t="n">
-        <v>0.958</v>
+        <v>1.112</v>
       </c>
       <c r="F18" t="n">
-        <v>1.014</v>
+        <v>1.056</v>
       </c>
       <c r="G18" t="n">
-        <v>0.252</v>
+        <v>0.497</v>
       </c>
       <c r="H18" t="n">
-        <v>2.39</v>
+        <v>3.53</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -903,25 +903,25 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.511</v>
+        <v>0.924</v>
       </c>
       <c r="E19" t="n">
-        <v>0.964</v>
+        <v>1.519</v>
       </c>
       <c r="F19" t="n">
-        <v>1.003</v>
+        <v>1.505</v>
       </c>
       <c r="G19" t="n">
-        <v>0.286</v>
+        <v>0.171</v>
       </c>
       <c r="H19" t="n">
-        <v>1.866</v>
+        <v>2.953</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -932,25 +932,25 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.894</v>
+        <v>0.858</v>
       </c>
       <c r="E20" t="n">
-        <v>1.544</v>
+        <v>1.318</v>
       </c>
       <c r="F20" t="n">
-        <v>1.522</v>
+        <v>1.366</v>
       </c>
       <c r="G20" t="n">
-        <v>0.298</v>
+        <v>0.217</v>
       </c>
       <c r="H20" t="n">
-        <v>3.238</v>
+        <v>2.456</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -961,25 +961,25 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0.644</v>
+        <v>1.218</v>
       </c>
       <c r="E21" t="n">
-        <v>0.85</v>
+        <v>1.177</v>
       </c>
       <c r="F21" t="n">
-        <v>0.804</v>
+        <v>1.126</v>
       </c>
       <c r="G21" t="n">
-        <v>0.332</v>
+        <v>0.523</v>
       </c>
       <c r="H21" t="n">
-        <v>2.296</v>
+        <v>3.874</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -993,19 +993,19 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>0.644</v>
+        <v>0.567</v>
       </c>
       <c r="E22" t="n">
-        <v>0.537</v>
+        <v>0.415</v>
       </c>
       <c r="F22" t="n">
-        <v>0.454</v>
+        <v>0.417</v>
       </c>
       <c r="G22" t="n">
-        <v>0.619</v>
+        <v>0.725</v>
       </c>
       <c r="H22" t="n">
-        <v>2.106</v>
+        <v>3.532</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
@@ -1019,22 +1019,22 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>0.506</v>
+        <v>0.858</v>
       </c>
       <c r="E23" t="n">
-        <v>0.984</v>
+        <v>1.118</v>
       </c>
       <c r="F23" t="n">
-        <v>0.977</v>
+        <v>0.994</v>
       </c>
       <c r="G23" t="n">
-        <v>0.253</v>
+        <v>0.351</v>
       </c>
       <c r="H23" t="n">
-        <v>2.389</v>
+        <v>2.786</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -1048,22 +1048,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>0.506</v>
+        <v>0.931</v>
       </c>
       <c r="E24" t="n">
-        <v>0.958</v>
+        <v>1.112</v>
       </c>
       <c r="F24" t="n">
-        <v>1.014</v>
+        <v>1.056</v>
       </c>
       <c r="G24" t="n">
-        <v>0.252</v>
+        <v>0.497</v>
       </c>
       <c r="H24" t="n">
-        <v>2.39</v>
+        <v>3.53</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
@@ -1077,22 +1077,22 @@
         <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.511</v>
+        <v>0.924</v>
       </c>
       <c r="E25" t="n">
-        <v>0.964</v>
+        <v>1.519</v>
       </c>
       <c r="F25" t="n">
-        <v>1.003</v>
+        <v>1.505</v>
       </c>
       <c r="G25" t="n">
-        <v>0.286</v>
+        <v>0.171</v>
       </c>
       <c r="H25" t="n">
-        <v>1.866</v>
+        <v>2.953</v>
       </c>
       <c r="I25" t="n">
         <v>3</v>
@@ -1106,22 +1106,22 @@
         <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>0.882</v>
+        <v>0.567</v>
       </c>
       <c r="E26" t="n">
-        <v>1.116</v>
+        <v>0.945</v>
       </c>
       <c r="F26" t="n">
-        <v>1.024</v>
+        <v>0.839</v>
       </c>
       <c r="G26" t="n">
-        <v>0.261</v>
+        <v>0.296</v>
       </c>
       <c r="H26" t="n">
-        <v>2.523</v>
+        <v>3.243</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -1135,22 +1135,22 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>0.644</v>
+        <v>0.858</v>
       </c>
       <c r="E27" t="n">
-        <v>0.85</v>
+        <v>1.318</v>
       </c>
       <c r="F27" t="n">
-        <v>0.804</v>
+        <v>1.366</v>
       </c>
       <c r="G27" t="n">
-        <v>0.306</v>
+        <v>0.19</v>
       </c>
       <c r="H27" t="n">
-        <v>2.296</v>
+        <v>2.456</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -1167,19 +1167,19 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0.882</v>
+        <v>1.218</v>
       </c>
       <c r="E28" t="n">
-        <v>1.187</v>
+        <v>1.177</v>
       </c>
       <c r="F28" t="n">
-        <v>1.522</v>
+        <v>1.126</v>
       </c>
       <c r="G28" t="n">
-        <v>0.336</v>
+        <v>0.523</v>
       </c>
       <c r="H28" t="n">
-        <v>3.791</v>
+        <v>3.874</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -1196,22 +1196,22 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>0.644</v>
+        <v>0.567</v>
       </c>
       <c r="E29" t="n">
-        <v>0.537</v>
+        <v>0.415</v>
       </c>
       <c r="F29" t="n">
-        <v>0.454</v>
+        <v>0.417</v>
       </c>
       <c r="G29" t="n">
-        <v>0.619</v>
+        <v>0.725</v>
       </c>
       <c r="H29" t="n">
-        <v>2.106</v>
+        <v>3.532</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1222,25 +1222,25 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>0.507</v>
+        <v>0.858</v>
       </c>
       <c r="E30" t="n">
-        <v>0.787</v>
+        <v>1.118</v>
       </c>
       <c r="F30" t="n">
-        <v>0.745</v>
+        <v>0.994</v>
       </c>
       <c r="G30" t="n">
-        <v>0.361</v>
+        <v>0.351</v>
       </c>
       <c r="H30" t="n">
-        <v>2.266</v>
+        <v>2.786</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1251,25 +1251,25 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D31" t="n">
-        <v>0.506</v>
+        <v>0.931</v>
       </c>
       <c r="E31" t="n">
-        <v>0.599</v>
+        <v>1.112</v>
       </c>
       <c r="F31" t="n">
-        <v>0.599</v>
+        <v>1.056</v>
       </c>
       <c r="G31" t="n">
-        <v>0.595</v>
+        <v>0.46</v>
       </c>
       <c r="H31" t="n">
-        <v>2.589</v>
+        <v>3.53</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1280,25 +1280,25 @@
         <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>0.506</v>
+        <v>0.801</v>
       </c>
       <c r="E32" t="n">
-        <v>0.958</v>
+        <v>1.294</v>
       </c>
       <c r="F32" t="n">
-        <v>1.014</v>
+        <v>1.224</v>
       </c>
       <c r="G32" t="n">
-        <v>0.171</v>
+        <v>0.208</v>
       </c>
       <c r="H32" t="n">
-        <v>2.39</v>
+        <v>2.934</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1309,25 +1309,25 @@
         <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>0.511</v>
+        <v>0.567</v>
       </c>
       <c r="E33" t="n">
-        <v>0.964</v>
+        <v>0.945</v>
       </c>
       <c r="F33" t="n">
-        <v>1.003</v>
+        <v>0.839</v>
       </c>
       <c r="G33" t="n">
-        <v>0.267</v>
+        <v>0.279</v>
       </c>
       <c r="H33" t="n">
-        <v>1.866</v>
+        <v>3.243</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1338,25 +1338,25 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>0.882</v>
+        <v>0.858</v>
       </c>
       <c r="E34" t="n">
-        <v>1.116</v>
+        <v>1.318</v>
       </c>
       <c r="F34" t="n">
-        <v>1.024</v>
+        <v>1.366</v>
       </c>
       <c r="G34" t="n">
-        <v>0.261</v>
+        <v>0.135</v>
       </c>
       <c r="H34" t="n">
-        <v>2.523</v>
+        <v>2.456</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1367,25 +1367,25 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>0.644</v>
+        <v>1.218</v>
       </c>
       <c r="E35" t="n">
-        <v>0.85</v>
+        <v>1.177</v>
       </c>
       <c r="F35" t="n">
-        <v>0.804</v>
+        <v>1.126</v>
       </c>
       <c r="G35" t="n">
-        <v>0.306</v>
+        <v>0.428</v>
       </c>
       <c r="H35" t="n">
-        <v>2.296</v>
+        <v>3.874</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1396,25 +1396,25 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>0.882</v>
+        <v>0.801</v>
       </c>
       <c r="E36" t="n">
-        <v>1.187</v>
+        <v>0.897</v>
       </c>
       <c r="F36" t="n">
-        <v>1.522</v>
+        <v>0.9</v>
       </c>
       <c r="G36" t="n">
-        <v>0.336</v>
+        <v>0.436</v>
       </c>
       <c r="H36" t="n">
-        <v>3.791</v>
+        <v>2.718</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1428,22 +1428,22 @@
         <v>8</v>
       </c>
       <c r="D37" t="n">
-        <v>0.644</v>
+        <v>0.567</v>
       </c>
       <c r="E37" t="n">
-        <v>0.537</v>
+        <v>0.415</v>
       </c>
       <c r="F37" t="n">
-        <v>0.454</v>
+        <v>0.417</v>
       </c>
       <c r="G37" t="n">
-        <v>0.619</v>
+        <v>0.725</v>
       </c>
       <c r="H37" t="n">
-        <v>2.106</v>
+        <v>3.532</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1454,25 +1454,25 @@
         <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>0.507</v>
+        <v>0.858</v>
       </c>
       <c r="E38" t="n">
-        <v>0.787</v>
+        <v>1.118</v>
       </c>
       <c r="F38" t="n">
-        <v>0.745</v>
+        <v>0.994</v>
       </c>
       <c r="G38" t="n">
-        <v>0.286</v>
+        <v>0.319</v>
       </c>
       <c r="H38" t="n">
-        <v>2.266</v>
+        <v>2.786</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1483,25 +1483,25 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D39" t="n">
-        <v>0.506</v>
+        <v>0.931</v>
       </c>
       <c r="E39" t="n">
-        <v>0.599</v>
+        <v>0.912</v>
       </c>
       <c r="F39" t="n">
-        <v>0.599</v>
+        <v>0.885</v>
       </c>
       <c r="G39" t="n">
-        <v>0.595</v>
+        <v>0.397</v>
       </c>
       <c r="H39" t="n">
-        <v>2.589</v>
+        <v>3.539</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1512,25 +1512,25 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>0.506</v>
+        <v>0.953</v>
       </c>
       <c r="E40" t="n">
-        <v>0.958</v>
+        <v>0.505</v>
       </c>
       <c r="F40" t="n">
-        <v>1.014</v>
+        <v>0.574</v>
       </c>
       <c r="G40" t="n">
-        <v>0.154</v>
+        <v>0.676</v>
       </c>
       <c r="H40" t="n">
-        <v>2.39</v>
+        <v>2.528</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1541,25 +1541,25 @@
         <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>0.511</v>
+        <v>0.801</v>
       </c>
       <c r="E41" t="n">
-        <v>0.831</v>
+        <v>1.294</v>
       </c>
       <c r="F41" t="n">
-        <v>0.744</v>
+        <v>1.224</v>
       </c>
       <c r="G41" t="n">
-        <v>0.256</v>
+        <v>0.18</v>
       </c>
       <c r="H41" t="n">
-        <v>1.718</v>
+        <v>2.934</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1570,25 +1570,25 @@
         <v>9</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" t="n">
-        <v>0.67</v>
+        <v>0.567</v>
       </c>
       <c r="E42" t="n">
-        <v>0.714</v>
+        <v>0.945</v>
       </c>
       <c r="F42" t="n">
-        <v>0.684</v>
+        <v>0.839</v>
       </c>
       <c r="G42" t="n">
-        <v>0.385</v>
+        <v>0.279</v>
       </c>
       <c r="H42" t="n">
-        <v>1.844</v>
+        <v>3.243</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1599,25 +1599,25 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>0.882</v>
+        <v>0.858</v>
       </c>
       <c r="E43" t="n">
-        <v>1.116</v>
+        <v>1.318</v>
       </c>
       <c r="F43" t="n">
-        <v>1.024</v>
+        <v>1.366</v>
       </c>
       <c r="G43" t="n">
-        <v>0.25</v>
+        <v>0.075</v>
       </c>
       <c r="H43" t="n">
-        <v>2.523</v>
+        <v>2.456</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1628,25 +1628,25 @@
         <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>0.644</v>
+        <v>1.218</v>
       </c>
       <c r="E44" t="n">
-        <v>0.85</v>
+        <v>1.177</v>
       </c>
       <c r="F44" t="n">
-        <v>0.804</v>
+        <v>1.126</v>
       </c>
       <c r="G44" t="n">
-        <v>0.289</v>
+        <v>0.428</v>
       </c>
       <c r="H44" t="n">
-        <v>2.296</v>
+        <v>3.874</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1657,25 +1657,25 @@
         <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>0.882</v>
+        <v>0.801</v>
       </c>
       <c r="E45" t="n">
-        <v>1.187</v>
+        <v>0.897</v>
       </c>
       <c r="F45" t="n">
-        <v>1.522</v>
+        <v>0.9</v>
       </c>
       <c r="G45" t="n">
-        <v>0.336</v>
+        <v>0.436</v>
       </c>
       <c r="H45" t="n">
-        <v>3.791</v>
+        <v>2.718</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1689,19 +1689,19 @@
         <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>0.644</v>
+        <v>0.567</v>
       </c>
       <c r="E46" t="n">
-        <v>0.537</v>
+        <v>0.415</v>
       </c>
       <c r="F46" t="n">
-        <v>0.454</v>
+        <v>0.417</v>
       </c>
       <c r="G46" t="n">
-        <v>0.619</v>
+        <v>0.725</v>
       </c>
       <c r="H46" t="n">
-        <v>2.106</v>
+        <v>3.532</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -1715,22 +1715,22 @@
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>0.507</v>
+        <v>0.858</v>
       </c>
       <c r="E47" t="n">
-        <v>0.787</v>
+        <v>1.118</v>
       </c>
       <c r="F47" t="n">
-        <v>0.745</v>
+        <v>0.994</v>
       </c>
       <c r="G47" t="n">
-        <v>0.244</v>
+        <v>0.319</v>
       </c>
       <c r="H47" t="n">
-        <v>2.266</v>
+        <v>2.786</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -1744,22 +1744,22 @@
         <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D48" t="n">
-        <v>0.506</v>
+        <v>0.931</v>
       </c>
       <c r="E48" t="n">
-        <v>0.599</v>
+        <v>0.912</v>
       </c>
       <c r="F48" t="n">
-        <v>0.599</v>
+        <v>0.885</v>
       </c>
       <c r="G48" t="n">
-        <v>0.495</v>
+        <v>0.397</v>
       </c>
       <c r="H48" t="n">
-        <v>2.589</v>
+        <v>3.539</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -1776,19 +1776,19 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>0.663</v>
+        <v>0.953</v>
       </c>
       <c r="E49" t="n">
-        <v>0.38</v>
+        <v>0.505</v>
       </c>
       <c r="F49" t="n">
-        <v>0.426</v>
+        <v>0.574</v>
       </c>
       <c r="G49" t="n">
-        <v>0.662</v>
+        <v>0.668</v>
       </c>
       <c r="H49" t="n">
-        <v>2.165</v>
+        <v>2.528</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -1802,22 +1802,22 @@
         <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>0.511</v>
+        <v>1.16</v>
       </c>
       <c r="E50" t="n">
-        <v>0.831</v>
+        <v>1.483</v>
       </c>
       <c r="F50" t="n">
-        <v>0.744</v>
+        <v>1.483</v>
       </c>
       <c r="G50" t="n">
-        <v>0.219</v>
+        <v>0.084</v>
       </c>
       <c r="H50" t="n">
-        <v>1.718</v>
+        <v>3.272</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -1831,22 +1831,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>0.67</v>
+        <v>0.567</v>
       </c>
       <c r="E51" t="n">
-        <v>0.714</v>
+        <v>0.945</v>
       </c>
       <c r="F51" t="n">
-        <v>0.684</v>
+        <v>0.839</v>
       </c>
       <c r="G51" t="n">
-        <v>0.385</v>
+        <v>0.279</v>
       </c>
       <c r="H51" t="n">
-        <v>1.844</v>
+        <v>3.243</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -1860,22 +1860,22 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>0.882</v>
+        <v>0.858</v>
       </c>
       <c r="E52" t="n">
-        <v>1.116</v>
+        <v>1.318</v>
       </c>
       <c r="F52" t="n">
-        <v>1.024</v>
+        <v>1.366</v>
       </c>
       <c r="G52" t="n">
-        <v>0.25</v>
+        <v>0.075</v>
       </c>
       <c r="H52" t="n">
-        <v>2.523</v>
+        <v>2.456</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -1889,22 +1889,22 @@
         <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>0.644</v>
+        <v>0.801</v>
       </c>
       <c r="E53" t="n">
-        <v>0.85</v>
+        <v>0.787</v>
       </c>
       <c r="F53" t="n">
-        <v>0.804</v>
+        <v>0.87</v>
       </c>
       <c r="G53" t="n">
-        <v>0.289</v>
+        <v>0.453</v>
       </c>
       <c r="H53" t="n">
-        <v>2.296</v>
+        <v>2.66</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -1921,19 +1921,19 @@
         <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>0.882</v>
+        <v>1.218</v>
       </c>
       <c r="E54" t="n">
-        <v>1.187</v>
+        <v>1.177</v>
       </c>
       <c r="F54" t="n">
-        <v>1.522</v>
+        <v>1.126</v>
       </c>
       <c r="G54" t="n">
-        <v>0.336</v>
+        <v>0.398</v>
       </c>
       <c r="H54" t="n">
-        <v>3.791</v>
+        <v>3.874</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -1950,19 +1950,19 @@
         <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>0.506</v>
+        <v>0.801</v>
       </c>
       <c r="E55" t="n">
-        <v>0.867</v>
+        <v>0.897</v>
       </c>
       <c r="F55" t="n">
-        <v>0.893</v>
+        <v>0.9</v>
       </c>
       <c r="G55" t="n">
-        <v>0.082</v>
+        <v>0.37</v>
       </c>
       <c r="H55" t="n">
-        <v>2.418</v>
+        <v>2.718</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
